--- a/dataTools/excelData/role/role.xlsx
+++ b/dataTools/excelData/role/role.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -117,6 +117,46 @@
   </si>
   <si>
     <t>BASICMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACKROUTINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STORY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1;1_2;1_3;1_4;1_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1;2_2;2_3;2_4;2_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1;3_2;3_3;3_4;3_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1;4_2;4_3;4_4;4_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1;5_2;5_3;5_4;5_5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,9 +508,10 @@
     <col min="10" max="10" width="14.5" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
     <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +545,14 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,8 +586,14 @@
       <c r="K2" t="s">
         <v>18</v>
       </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -563,10 +616,10 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>0.05</v>
@@ -574,8 +627,14 @@
       <c r="K3">
         <v>1.5</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -598,10 +657,10 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4">
         <v>0.03</v>
@@ -609,8 +668,14 @@
       <c r="K4">
         <v>1.5</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -633,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I5">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="J5">
         <v>0.01</v>
@@ -644,8 +709,14 @@
       <c r="K5">
         <v>1.5</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -668,16 +739,63 @@
         <v>15</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <v>0.1</v>
       </c>
       <c r="K6">
         <v>1.5</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>20001</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>400</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>1.5</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/dataTools/excelData/role/role.xlsx
+++ b/dataTools/excelData/role/role.xlsx
@@ -120,10 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Invoker</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ATTACKROUTINE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,6 +153,10 @@
   </si>
   <si>
     <t>5_1;5_2;5_3;5_4;5_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,7 +495,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="F16" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -546,10 +546,10 @@
         <v>16</v>
       </c>
       <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -587,10 +587,10 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -762,7 +762,7 @@
         <v>20001</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
